--- a/Streamlit_App/data/Metrics/Classification_Models_CD_Training_Metrics.xlsx
+++ b/Streamlit_App/data/Metrics/Classification_Models_CD_Training_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogeo\Desktop\Project\Blood-Brain-Barrier-Drug-Prediction\Streamlit_App\data\Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524794B1-9D29-45FB-B43C-97F674FE0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353F15E8-8EB5-40E7-B29A-203774FC6307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BBC61F12-D5BD-46C9-AA24-188DE87D93C0}"/>
   </bookViews>
@@ -84,10 +84,10 @@
     <t>Stochastic Gradient Descent Classifier</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
+    <t xml:space="preserve">Accuracy </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -200,15 +200,17 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -536,7 +538,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -583,184 +585,184 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>0.73528147829823798</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>0.73528147829823798</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0.84744923229321401</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>0.84955601598342401</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>0.962005303957568</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.85357427915269402</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0.90414278164777695</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>0.58392110076974302</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>0.84697535888707998</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>0.97135862913096604</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>0.84507225492753002</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>0.90353730860100501</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>0.57422701945170895</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>0.87190506141778901</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>0.95849653202774299</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>0.87917159497082797</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>0.91683079830029202</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>0.65328600538652903</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>0.87018647328696097</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>0.94680402556779497</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>0.88541551592663303</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0.91474735731225898</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>0.65202782355333</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>0.82337205860589002</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0.89012307901536702</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>0.872855040259776</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>0.88095280838878598</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>0.539994015714096</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>0.85385341127719305</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>0.96434788521691805</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>0.85673010013277096</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0.90690201264925896</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>0.59678195272913503</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
@@ -769,5 +771,6 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>